--- a/mod_october_22/work_version_22.xlsx
+++ b/mod_october_22/work_version_22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\M3\mod_october_22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98535D4-A5AE-4351-9B55-70D564944810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365A3FC3-EB7E-4FC9-875A-AA3AB43486B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="472">
   <si>
     <t>title</t>
   </si>
@@ -1433,13 +1433,16 @@
   </si>
   <si>
     <t>CAPV_R3_2_C1</t>
+  </si>
+  <si>
+    <t>SELECT LEFT(CASE WHEN TRIM(c.code) REGEXP '^[135]' AND CHAR_LENGTH(TRIM(c.code)) = 6 THEN CONCAT('0', TRIM(c.code)) ELSE TRIM(c.code) END , 7) AS code, CONCAT(LEFT(CASE WHEN TRIM(c.code) REGEXP '^[135]' AND CHAR_LENGTH(TRIM(c.code)) = 6 THEN CONCAT('0', TRIM(c.code)) ELSE TRIM(c.code) END, 7), ' - ',  t.name) FROM taxonomy_term_data t JOIN classifier_cuatm_full c ON c.tid = t.tid  WHERE c.prgs in ('2') AND c.code not in ('0000000','1111111','2222222','3333333');</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1454,6 +1457,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -1490,7 +1499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1499,6 +1508,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1807,13 +1819,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="A191" sqref="A191"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="61.5703125" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="3" max="3" width="88.140625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
@@ -4895,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>144</v>
       </c>
@@ -4957,7 +4969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>146</v>
       </c>
@@ -5019,7 +5031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>148</v>
       </c>
@@ -5081,7 +5093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>150</v>
       </c>
@@ -5143,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>152</v>
       </c>
@@ -5205,7 +5217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>154</v>
       </c>
@@ -5267,7 +5279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>156</v>
       </c>
@@ -5329,7 +5341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>158</v>
       </c>
@@ -5391,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>160</v>
       </c>
@@ -5453,7 +5465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>162</v>
       </c>
@@ -5515,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>164</v>
       </c>
@@ -5577,7 +5589,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" s="6"/>
       <c r="B60" t="s">
         <v>166</v>
       </c>
@@ -5639,7 +5652,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="A61" s="6"/>
       <c r="B61" t="s">
         <v>169</v>
       </c>
@@ -5683,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="T61" t="s">
-        <v>171</v>
+        <v>471</v>
       </c>
       <c r="V61" t="s">
         <v>172</v>
@@ -5704,7 +5718,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="A62" s="6"/>
       <c r="B62" t="s">
         <v>68</v>
       </c>
@@ -5766,7 +5781,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+      <c r="A63" s="6"/>
       <c r="B63" t="s">
         <v>72</v>
       </c>
@@ -5828,7 +5844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>75</v>
       </c>
